--- a/status/excel/buzi_excel.xlsx
+++ b/status/excel/buzi_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selenawallace/Documents/Data_Science/geography/status/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvas22/Desktop/David/www/geography/status/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D93CAB-E526-EE44-816D-A8B40122B830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C19D7-8AED-0747-B7BD-C929E8FF25DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="1280" windowWidth="16800" windowHeight="15280" xr2:uid="{88A14312-0DBB-0D4F-B21C-10925268DFDF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" xr2:uid="{88A14312-0DBB-0D4F-B21C-10925268DFDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="12">
   <si>
     <t>index</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>buzi</t>
+  </si>
+  <si>
+    <t>last_column</t>
+  </si>
+  <si>
+    <t>00/00/0000</t>
   </si>
 </sst>
 </file>
@@ -104,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D7F5002-0D1D-294F-952F-585280622BE5}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="219" workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,7 +995,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1005,7 +1012,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1022,7 +1029,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1039,7 +1046,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1056,7 +1063,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1073,7 +1080,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1090,7 +1097,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1124,7 +1131,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1141,7 +1148,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1175,7 +1182,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1192,7 +1199,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1208,6 +1215,46 @@
       <c r="F45">
         <v>365</v>
       </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52"/>
+      <c r="D52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
